--- a/progres.xlsx
+++ b/progres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pmb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server\www\pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36D8D9-C0EF-4474-A7F5-BA6D17A3CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833CFE9-9122-4693-A620-3602E21226E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Tahun Ajaran</t>
+  </si>
+  <si>
+    <t>Program Studi</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,13 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +417,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +436,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -432,18 +451,22 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -452,8 +475,9 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -462,8 +486,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -472,8 +497,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -482,8 +508,9 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -492,8 +519,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -502,8 +530,9 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -512,6 +541,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/progres.xlsx
+++ b/progres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server\www\pmb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server\www\pemograman-web-2-pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833CFE9-9122-4693-A620-3602E21226E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571806B-485B-4E84-92F6-E2EF7FD037DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NO</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>DETAIL</t>
+  </si>
+  <si>
+    <t>Periode</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,12 +473,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">

--- a/progres.xlsx
+++ b/progres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\server\www\pemograman-web-2-pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571806B-485B-4E84-92F6-E2EF7FD037DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFAE6AE-C44A-442B-A273-08123487ADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NO</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Periode</t>
+  </si>
+  <si>
+    <t>Pendaftaran</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>SPP</t>
   </si>
 </sst>
 </file>
@@ -117,16 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +417,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +445,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -454,7 +460,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -486,34 +492,40 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
